--- a/pre/results.xlsx
+++ b/pre/results.xlsx
@@ -667,7 +667,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -680,7 +680,10 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -997,7 +1000,7 @@
   <dimension ref="A1:AD55"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="AA15" sqref="AA15"/>
+      <selection activeCell="AA30" sqref="AA30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -1007,13 +1010,14 @@
     <col min="18" max="18" width="14.125"/>
     <col min="20" max="20" width="14.125"/>
     <col min="22" max="22" width="14.125"/>
+    <col min="26" max="26" width="14.125"/>
+    <col min="28" max="28" width="14.125"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:30">
       <c r="A1" t="s">
         <v>0</v>
       </c>
-      <c r="B1"/>
       <c r="L1">
         <v>0.95</v>
       </c>
@@ -1106,8 +1110,8 @@
       <c r="Z2">
         <v>0.9627</v>
       </c>
-      <c r="AB2">
-        <v>0.9061</v>
+      <c r="AB2" s="4">
+        <v>0.254841392688687</v>
       </c>
     </row>
     <row r="3" spans="1:28">
@@ -1145,7 +1149,7 @@
         <v>0.9851</v>
       </c>
       <c r="L3">
-        <f>AVERAGE(B3:K3)</f>
+        <f t="shared" ref="L3:L12" si="0">AVERAGE(B3:K3)</f>
         <v>0.97653</v>
       </c>
       <c r="M3">
@@ -1172,8 +1176,8 @@
       <c r="Z3" s="1">
         <v>0.85074603452258</v>
       </c>
-      <c r="AB3" s="1">
-        <v>0.851002832235069</v>
+      <c r="AB3" s="4">
+        <v>0</v>
       </c>
     </row>
     <row r="4" spans="1:28">
@@ -1211,7 +1215,7 @@
         <v>0.9456</v>
       </c>
       <c r="L4">
-        <f>AVERAGE(B4:K4)</f>
+        <f t="shared" si="0"/>
         <v>0.93457</v>
       </c>
       <c r="M4">
@@ -1238,8 +1242,8 @@
       <c r="Z4" s="1">
         <v>0.992526969937268</v>
       </c>
-      <c r="AB4" s="1">
-        <v>0</v>
+      <c r="AB4" s="4">
+        <v>0.0250502075996874</v>
       </c>
     </row>
     <row r="5" spans="1:28">
@@ -1277,7 +1281,7 @@
         <v>0.9035</v>
       </c>
       <c r="L5">
-        <f>AVERAGE(B5:K5)</f>
+        <f t="shared" si="0"/>
         <v>0.9525</v>
       </c>
       <c r="M5">
@@ -1304,7 +1308,7 @@
       <c r="Z5" s="1">
         <v>0.948666737561403</v>
       </c>
-      <c r="AB5" s="1">
+      <c r="AB5" s="4">
         <v>0</v>
       </c>
     </row>
@@ -1343,7 +1347,7 @@
         <v>0.9228</v>
       </c>
       <c r="L6">
-        <f>AVERAGE(B6:K6)</f>
+        <f t="shared" si="0"/>
         <v>0.95297</v>
       </c>
       <c r="M6">
@@ -1370,8 +1374,8 @@
       <c r="Z6" s="1">
         <v>0.8124</v>
       </c>
-      <c r="AB6" s="1">
-        <v>0</v>
+      <c r="AB6" s="4">
+        <v>0.00520999218212896</v>
       </c>
     </row>
     <row r="7" spans="1:28">
@@ -1409,7 +1413,7 @@
         <v>0.9752</v>
       </c>
       <c r="L7">
-        <f>AVERAGE(B7:K7)</f>
+        <f t="shared" si="0"/>
         <v>0.97118</v>
       </c>
       <c r="M7">
@@ -1436,8 +1440,8 @@
       <c r="Z7" s="1">
         <v>0.947427476210714</v>
       </c>
-      <c r="AB7" s="1">
-        <v>0</v>
+      <c r="AB7" s="4">
+        <v>0.216299627078822</v>
       </c>
     </row>
     <row r="8" spans="1:28">
@@ -1475,7 +1479,7 @@
         <v>0.9553</v>
       </c>
       <c r="L8">
-        <f>AVERAGE(B8:K8)</f>
+        <f t="shared" si="0"/>
         <v>0.94863</v>
       </c>
       <c r="M8">
@@ -1502,8 +1506,8 @@
       <c r="Z8" s="1">
         <v>0.9521</v>
       </c>
-      <c r="AB8" s="1">
-        <v>0</v>
+      <c r="AB8" s="4">
+        <v>0.254048038882068</v>
       </c>
     </row>
     <row r="9" spans="1:28">
@@ -1541,7 +1545,7 @@
         <v>0.9127</v>
       </c>
       <c r="L9">
-        <f>AVERAGE(B9:K9)</f>
+        <f t="shared" si="0"/>
         <v>0.93468</v>
       </c>
       <c r="M9">
@@ -1568,8 +1572,8 @@
       <c r="Z9" s="1">
         <v>0.926170063213779</v>
       </c>
-      <c r="AB9" s="1">
-        <v>0</v>
+      <c r="AB9" s="4">
+        <v>0.0147500156738463</v>
       </c>
     </row>
     <row r="10" spans="1:28">
@@ -1607,7 +1611,7 @@
         <v>0.9851</v>
       </c>
       <c r="L10">
-        <f>AVERAGE(B10:K10)</f>
+        <f t="shared" si="0"/>
         <v>0.97384</v>
       </c>
       <c r="M10">
@@ -1634,7 +1638,7 @@
       <c r="Z10" s="1">
         <v>0</v>
       </c>
-      <c r="AB10" s="1">
+      <c r="AB10" s="4">
         <v>0</v>
       </c>
     </row>
@@ -1673,7 +1677,7 @@
         <v>0.9605</v>
       </c>
       <c r="L11">
-        <f>AVERAGE(B11:K11)</f>
+        <f t="shared" si="0"/>
         <v>0.95966</v>
       </c>
       <c r="M11">
@@ -1700,8 +1704,8 @@
       <c r="Z11" s="1">
         <v>0.848491310565318</v>
       </c>
-      <c r="AB11" s="1">
-        <v>0</v>
+      <c r="AB11" s="4">
+        <v>0.218786161567035</v>
       </c>
     </row>
     <row r="12" spans="1:28">
@@ -1739,7 +1743,7 @@
         <v>0.9317</v>
       </c>
       <c r="L12">
-        <f>AVERAGE(B12:K12)</f>
+        <f t="shared" si="0"/>
         <v>0.94166</v>
       </c>
       <c r="M12">
@@ -1766,7 +1770,7 @@
       <c r="Z12" s="1">
         <v>1</v>
       </c>
-      <c r="AB12" s="1">
+      <c r="AB12" s="4">
         <v>0</v>
       </c>
     </row>
@@ -1800,7 +1804,7 @@
       <c r="Z13" s="1">
         <v>0.91027360289118</v>
       </c>
-      <c r="AB13" s="1">
+      <c r="AB13" s="4">
         <v>0</v>
       </c>
     </row>
@@ -1823,8 +1827,8 @@
       <c r="Z14" s="1">
         <v>0</v>
       </c>
-      <c r="AB14" s="1">
-        <v>0</v>
+      <c r="AB14" s="4">
+        <v>0.258726353054336</v>
       </c>
     </row>
     <row r="15" spans="12:28">
@@ -1852,7 +1856,7 @@
       <c r="Z15" s="1">
         <v>0</v>
       </c>
-      <c r="AB15" s="1">
+      <c r="AB15" s="4">
         <v>0</v>
       </c>
     </row>
@@ -1881,8 +1885,8 @@
       <c r="Z16" s="1">
         <v>0.985437400605066</v>
       </c>
-      <c r="AB16" s="1">
-        <v>0</v>
+      <c r="AB16" s="5">
+        <v>2.92535099571074e-5</v>
       </c>
     </row>
     <row r="17" spans="12:28">
@@ -1910,8 +1914,8 @@
       <c r="Z17" s="1">
         <v>0.8560868787879</v>
       </c>
-      <c r="AB17" s="1">
-        <v>0</v>
+      <c r="AB17" s="4">
+        <v>0.0073079624479023</v>
       </c>
     </row>
     <row r="18" spans="12:28">
@@ -1939,7 +1943,7 @@
       <c r="Z18" s="1">
         <v>0.847416579202451</v>
       </c>
-      <c r="AB18" s="1">
+      <c r="AB18" s="4">
         <v>0</v>
       </c>
     </row>
@@ -1968,8 +1972,8 @@
       <c r="Z19" s="1">
         <v>0.945038717644057</v>
       </c>
-      <c r="AB19" s="1">
-        <v>0</v>
+      <c r="AB19" s="4">
+        <v>0.235984301976605</v>
       </c>
     </row>
     <row r="20" spans="12:28">
@@ -1997,8 +2001,8 @@
       <c r="Z20" s="1">
         <v>0</v>
       </c>
-      <c r="AB20" s="1">
-        <v>0.928180934520519</v>
+      <c r="AB20" s="4">
+        <v>0</v>
       </c>
     </row>
     <row r="21" spans="12:28">
@@ -2026,7 +2030,7 @@
       <c r="Z21" s="1">
         <v>0</v>
       </c>
-      <c r="AB21" s="1">
+      <c r="AB21" s="4">
         <v>0</v>
       </c>
     </row>
@@ -2055,7 +2059,7 @@
       <c r="Z22" s="1">
         <v>0.915928289183026</v>
       </c>
-      <c r="AB22" s="1">
+      <c r="AB22" s="4">
         <v>0</v>
       </c>
     </row>
@@ -2084,8 +2088,8 @@
       <c r="Z23" s="1">
         <v>0</v>
       </c>
-      <c r="AB23" s="1">
-        <v>0</v>
+      <c r="AB23" s="4">
+        <v>0.239221640228959</v>
       </c>
     </row>
     <row r="24" spans="12:28">
@@ -2113,7 +2117,7 @@
       <c r="Z24" s="1">
         <v>0</v>
       </c>
-      <c r="AB24" s="1">
+      <c r="AB24" s="4">
         <v>0</v>
       </c>
     </row>
@@ -2142,8 +2146,8 @@
       <c r="Z25" s="1">
         <v>0</v>
       </c>
-      <c r="AB25" s="1">
-        <v>0</v>
+      <c r="AB25" s="4">
+        <v>0.26692089793869</v>
       </c>
     </row>
     <row r="26" spans="12:28">
@@ -2171,7 +2175,7 @@
       <c r="Z26" s="1">
         <v>0.902106474364352</v>
       </c>
-      <c r="AB26" s="1">
+      <c r="AB26" s="4">
         <v>0</v>
       </c>
     </row>
@@ -2190,23 +2194,29 @@
       </c>
       <c r="S27" s="2"/>
       <c r="T27" s="2">
-        <f t="shared" ref="T27:X27" si="0">AVERAGE(T2:T26)</f>
+        <f t="shared" ref="T27:X27" si="1">AVERAGE(T2:T26)</f>
         <v>0.995450039475378</v>
       </c>
       <c r="U27" s="2"/>
       <c r="V27" s="2">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0.98223526636138</v>
       </c>
       <c r="W27" s="2"/>
-      <c r="X27" s="4">
-        <f t="shared" si="0"/>
+      <c r="X27" s="2">
+        <f t="shared" si="1"/>
         <v>0.89845991952956</v>
       </c>
       <c r="Y27" s="2"/>
-      <c r="Z27" s="2"/>
+      <c r="Z27" s="2">
+        <f>AVERAGE(Z2:Z26)</f>
+        <v>0.624140661387564</v>
+      </c>
       <c r="AA27" s="2"/>
-      <c r="AB27" s="2"/>
+      <c r="AB27" s="2">
+        <f>AVERAGE(AB2:AB26)</f>
+        <v>0.079887033793149</v>
+      </c>
       <c r="AC27" s="2"/>
       <c r="AD27" s="2"/>
     </row>
